--- a/Code/Results/Cases/Case_9_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.311761607318601</v>
+        <v>3.064605844795267</v>
       </c>
       <c r="C2">
-        <v>0.4438835456842298</v>
+        <v>0.4947375571016437</v>
       </c>
       <c r="D2">
-        <v>0.02322495232947475</v>
+        <v>0.02821332516958108</v>
       </c>
       <c r="E2">
-        <v>0.03858115686073837</v>
+        <v>0.03769488898791806</v>
       </c>
       <c r="F2">
-        <v>1.49087653654496</v>
+        <v>1.315325603877042</v>
       </c>
       <c r="G2">
-        <v>1.277370348417108</v>
+        <v>1.079130100205873</v>
       </c>
       <c r="H2">
-        <v>0.005246934572234574</v>
+        <v>0.004098150598327965</v>
       </c>
       <c r="I2">
-        <v>0.006152616340419303</v>
+        <v>0.00436934078040796</v>
       </c>
       <c r="J2">
-        <v>0.8188404963455866</v>
+        <v>0.7507509711908398</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06463982075474917</v>
+        <v>0.2904521213298779</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2140921187432454</v>
       </c>
       <c r="N2">
-        <v>0.2935508406411174</v>
+        <v>0.059460722446536</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9258400167515299</v>
+        <v>0.3226061761921386</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.889688411103748</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.897981367511647</v>
+        <v>2.687973355569966</v>
       </c>
       <c r="C3">
-        <v>0.3883561921413161</v>
+        <v>0.4291395440633323</v>
       </c>
       <c r="D3">
-        <v>0.02145970132255215</v>
+        <v>0.02606725565972567</v>
       </c>
       <c r="E3">
-        <v>0.03619479379219559</v>
+        <v>0.03567511104020671</v>
       </c>
       <c r="F3">
-        <v>1.393922577673095</v>
+        <v>1.238463761230562</v>
       </c>
       <c r="G3">
-        <v>1.182887395901531</v>
+        <v>1.00884817465429</v>
       </c>
       <c r="H3">
-        <v>0.008108930296204631</v>
+        <v>0.006384356462438456</v>
       </c>
       <c r="I3">
-        <v>0.009193302113562396</v>
+        <v>0.006521545250131933</v>
       </c>
       <c r="J3">
-        <v>0.7790138006255916</v>
+        <v>0.7155295570624958</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06084722428211187</v>
+        <v>0.2890607001858072</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2015476888556869</v>
       </c>
       <c r="N3">
-        <v>0.2595870804887568</v>
+        <v>0.05643602263995806</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9599432418173377</v>
+        <v>0.2854209672153871</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9175131907885437</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.6436557413316</v>
+        <v>2.455786406078573</v>
       </c>
       <c r="C4">
-        <v>0.3545189259903907</v>
+        <v>0.3892287362558307</v>
       </c>
       <c r="D4">
-        <v>0.02039057090554053</v>
+        <v>0.0247710668964487</v>
       </c>
       <c r="E4">
-        <v>0.03472098865484874</v>
+        <v>0.03442329671889954</v>
       </c>
       <c r="F4">
-        <v>1.335132600623766</v>
+        <v>1.191668333758628</v>
       </c>
       <c r="G4">
-        <v>1.125556619868064</v>
+        <v>0.9662611366142499</v>
       </c>
       <c r="H4">
-        <v>0.01024814915047329</v>
+        <v>0.008099947328507495</v>
       </c>
       <c r="I4">
-        <v>0.01149024849608393</v>
+        <v>0.00817614559808888</v>
       </c>
       <c r="J4">
-        <v>0.7549933024430686</v>
+        <v>0.6938768196885121</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05848555690558044</v>
+        <v>0.2880009045524545</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1946584506214002</v>
       </c>
       <c r="N4">
-        <v>0.2388312490525095</v>
+        <v>0.05454280839255965</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9814458475619245</v>
+        <v>0.2627173074461524</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9352727991953778</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.538048401015487</v>
+        <v>2.359180461638232</v>
       </c>
       <c r="C5">
-        <v>0.3412418634948722</v>
+        <v>0.3735235773982595</v>
       </c>
       <c r="D5">
-        <v>0.01998373190797054</v>
+        <v>0.02427589070883585</v>
       </c>
       <c r="E5">
-        <v>0.03410669235518249</v>
+        <v>0.03389996287599839</v>
       </c>
       <c r="F5">
-        <v>1.310129033582044</v>
+        <v>1.171594539406456</v>
       </c>
       <c r="G5">
-        <v>1.101073852536786</v>
+        <v>0.9479107106678129</v>
       </c>
       <c r="H5">
-        <v>0.01121831965982576</v>
+        <v>0.008879517694846975</v>
       </c>
       <c r="I5">
-        <v>0.01261853670182411</v>
+        <v>0.009029667846493616</v>
       </c>
       <c r="J5">
-        <v>0.7446612115911364</v>
+        <v>0.6844504132060791</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05747732531728822</v>
+        <v>0.2871836251037436</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1918206189828418</v>
       </c>
       <c r="N5">
-        <v>0.2305594242422728</v>
+        <v>0.05373221116692761</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.990244272828277</v>
+        <v>0.2536588124137609</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9427123858838069</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.518207871224774</v>
+        <v>2.340994639509915</v>
       </c>
       <c r="C6">
-        <v>0.3395994862314353</v>
+        <v>0.3715033185103209</v>
       </c>
       <c r="D6">
-        <v>0.0199477179669536</v>
+        <v>0.02422828781365283</v>
       </c>
       <c r="E6">
-        <v>0.03399119838558029</v>
+        <v>0.0338008960590015</v>
       </c>
       <c r="F6">
-        <v>1.304500782773118</v>
+        <v>1.166930872591422</v>
       </c>
       <c r="G6">
-        <v>1.09545992085387</v>
+        <v>0.9434986449000746</v>
       </c>
       <c r="H6">
-        <v>0.01139310903782355</v>
+        <v>0.009020102212551728</v>
       </c>
       <c r="I6">
-        <v>0.01292823794085862</v>
+        <v>0.009306171816028552</v>
       </c>
       <c r="J6">
-        <v>0.7421635637249295</v>
+        <v>0.6821597095112253</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05726476329014929</v>
+        <v>0.2866383113408446</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1910780093947082</v>
       </c>
       <c r="N6">
-        <v>0.2293894234439051</v>
+        <v>0.05356133334369861</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9915929275125226</v>
+        <v>0.2523577617518242</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.944006815609292</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.63593003805471</v>
+        <v>2.445993180218807</v>
       </c>
       <c r="C7">
-        <v>0.355870635933627</v>
+        <v>0.3897349889049337</v>
       </c>
       <c r="D7">
-        <v>0.02047068678766095</v>
+        <v>0.02496393661663632</v>
       </c>
       <c r="E7">
-        <v>0.03467641932877541</v>
+        <v>0.03440389574507563</v>
       </c>
       <c r="F7">
-        <v>1.33073150174063</v>
+        <v>1.185535169539946</v>
       </c>
       <c r="G7">
-        <v>1.120966211583536</v>
+        <v>0.9661940503239066</v>
       </c>
       <c r="H7">
-        <v>0.01028189641579799</v>
+        <v>0.008137278834275952</v>
       </c>
       <c r="I7">
-        <v>0.01180381185551749</v>
+        <v>0.008533336929994917</v>
       </c>
       <c r="J7">
-        <v>0.7527004168091196</v>
+        <v>0.6838307569660032</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05835027245709945</v>
+        <v>0.2864061581089246</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1934701905601592</v>
       </c>
       <c r="N7">
-        <v>0.2392734848896225</v>
+        <v>0.05441608640769413</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9812529242227006</v>
+        <v>0.2630374161687996</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9356206984919524</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.160688565845021</v>
+        <v>2.918229084141274</v>
       </c>
       <c r="C8">
-        <v>0.4267241198084832</v>
+        <v>0.4712181340699146</v>
       </c>
       <c r="D8">
-        <v>0.02272655200213691</v>
+        <v>0.02795156279843525</v>
       </c>
       <c r="E8">
-        <v>0.03771175395825743</v>
+        <v>0.03702670621878301</v>
       </c>
       <c r="F8">
-        <v>1.451890439235953</v>
+        <v>1.276572602161579</v>
       </c>
       <c r="G8">
-        <v>1.23898100723342</v>
+        <v>1.062980397429371</v>
       </c>
       <c r="H8">
-        <v>0.00617245830456381</v>
+        <v>0.004860496238329959</v>
       </c>
       <c r="I8">
-        <v>0.007459352118916129</v>
+        <v>0.005465163462798905</v>
       </c>
       <c r="J8">
-        <v>0.8021600290402802</v>
+        <v>0.7098422091002732</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06317726593849216</v>
+        <v>0.287123927966654</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2072084442443582</v>
       </c>
       <c r="N8">
-        <v>0.2825565387754949</v>
+        <v>0.05823830380194384</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.937152364461812</v>
+        <v>0.3101260549641438</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8999163657162335</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.200296678025438</v>
+        <v>3.857773802276824</v>
       </c>
       <c r="C9">
-        <v>0.565357247528766</v>
+        <v>0.6346184928440266</v>
       </c>
       <c r="D9">
-        <v>0.0271343005115483</v>
+        <v>0.03344119912247123</v>
       </c>
       <c r="E9">
-        <v>0.04369316249828081</v>
+        <v>0.04208507957949781</v>
       </c>
       <c r="F9">
-        <v>1.703485591166725</v>
+        <v>1.473383897018167</v>
       </c>
       <c r="G9">
-        <v>1.484357381654405</v>
+        <v>1.250408064041238</v>
       </c>
       <c r="H9">
-        <v>0.001328580500110199</v>
+        <v>0.001013508934217366</v>
       </c>
       <c r="I9">
-        <v>0.00215087028320049</v>
+        <v>0.001721057891378663</v>
       </c>
       <c r="J9">
-        <v>0.9068469394184149</v>
+        <v>0.7926941444132893</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07264865253928932</v>
+        <v>0.2905213164142708</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2435937908281431</v>
       </c>
       <c r="N9">
-        <v>0.3673788665564786</v>
+        <v>0.06572302564449117</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8557631875029976</v>
+        <v>0.4030357283637471</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8346490857468929</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.933823128755648</v>
+        <v>4.502542769031891</v>
       </c>
       <c r="C10">
-        <v>0.6712510105947445</v>
+        <v>0.7530667778225961</v>
       </c>
       <c r="D10">
-        <v>0.0300837827283793</v>
+        <v>0.03773170191141872</v>
       </c>
       <c r="E10">
-        <v>0.0470083975657074</v>
+        <v>0.04490186835470222</v>
       </c>
       <c r="F10">
-        <v>1.868170899794578</v>
+        <v>1.587131492164161</v>
       </c>
       <c r="G10">
-        <v>1.646384417708731</v>
+        <v>1.397147429186333</v>
       </c>
       <c r="H10">
-        <v>0.0002595863224508221</v>
+        <v>0.000237563998461976</v>
       </c>
       <c r="I10">
-        <v>0.0009718217991654399</v>
+        <v>0.00110611673497818</v>
       </c>
       <c r="J10">
-        <v>0.9750379200021371</v>
+        <v>0.7996253707813139</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07782830962745457</v>
+        <v>0.2860207694042529</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2679419924947339</v>
       </c>
       <c r="N10">
-        <v>0.4194098651017839</v>
+        <v>0.06981389975936114</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.799038854473423</v>
+        <v>0.4596110920935388</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7943934106836856</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.00923409827891</v>
+        <v>4.552410384750203</v>
       </c>
       <c r="C11">
-        <v>0.7327606649978691</v>
+        <v>0.8036261053004239</v>
       </c>
       <c r="D11">
-        <v>0.02786259749541742</v>
+        <v>0.03590644270001775</v>
       </c>
       <c r="E11">
-        <v>0.04107935320224998</v>
+        <v>0.03948236853579923</v>
       </c>
       <c r="F11">
-        <v>1.7371701516293</v>
+        <v>1.448498782291693</v>
       </c>
       <c r="G11">
-        <v>1.532623454521541</v>
+        <v>1.350786153219246</v>
       </c>
       <c r="H11">
-        <v>0.01878870600618043</v>
+        <v>0.01878524412030913</v>
       </c>
       <c r="I11">
-        <v>0.001433325188506807</v>
+        <v>0.001731063285342671</v>
       </c>
       <c r="J11">
-        <v>0.9126234728724683</v>
+        <v>0.6627069735671256</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07080034207107355</v>
+        <v>0.2518188314482757</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2429323507378598</v>
       </c>
       <c r="N11">
-        <v>0.3496696773064087</v>
+        <v>0.06630015769046249</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7821664945545272</v>
+        <v>0.3837755345365252</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.810321426891619</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.924747588815535</v>
+        <v>4.475101990378334</v>
       </c>
       <c r="C12">
-        <v>0.7601049579079415</v>
+        <v>0.821773284429355</v>
       </c>
       <c r="D12">
-        <v>0.0254395898712545</v>
+        <v>0.03301272960260704</v>
       </c>
       <c r="E12">
-        <v>0.03817430175276693</v>
+        <v>0.03685705537312389</v>
       </c>
       <c r="F12">
-        <v>1.601020819056018</v>
+        <v>1.32459667729718</v>
       </c>
       <c r="G12">
-        <v>1.411521783008254</v>
+        <v>1.271711956096624</v>
       </c>
       <c r="H12">
-        <v>0.05747798726068254</v>
+        <v>0.05747604613866741</v>
       </c>
       <c r="I12">
-        <v>0.001431477280555704</v>
+        <v>0.001731449785422612</v>
       </c>
       <c r="J12">
-        <v>0.8498847205766822</v>
+        <v>0.5818491195143167</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07090365352302008</v>
+        <v>0.2283094412587197</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2202267418000261</v>
       </c>
       <c r="N12">
-        <v>0.2850280152260893</v>
+        <v>0.06934508744041956</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7898420450119445</v>
+        <v>0.3138089923542395</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8399778776317888</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.702855336560162</v>
+        <v>4.293392131953453</v>
       </c>
       <c r="C13">
-        <v>0.7648455561680976</v>
+        <v>0.8209322708363516</v>
       </c>
       <c r="D13">
-        <v>0.02285983533052161</v>
+        <v>0.02917924785521819</v>
       </c>
       <c r="E13">
-        <v>0.03732748167393618</v>
+        <v>0.03627020856449459</v>
       </c>
       <c r="F13">
-        <v>1.44701465761149</v>
+        <v>1.202864741073583</v>
       </c>
       <c r="G13">
-        <v>1.271325910815563</v>
+        <v>1.148610862381901</v>
       </c>
       <c r="H13">
-        <v>0.1133093559462566</v>
+        <v>0.113289701012917</v>
       </c>
       <c r="I13">
-        <v>0.001421879771010381</v>
+        <v>0.001686327692413059</v>
       </c>
       <c r="J13">
-        <v>0.7799642412969661</v>
+        <v>0.5433579052721171</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.07616027112896973</v>
+        <v>0.2099980526774523</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1975892782077473</v>
       </c>
       <c r="N13">
-        <v>0.2219246374525596</v>
+        <v>0.07724720590056222</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8153673534313555</v>
+        <v>0.2458071467151939</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8774698967770007</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.484713142369742</v>
+        <v>4.117367165348526</v>
       </c>
       <c r="C14">
-        <v>0.7584445986627202</v>
+        <v>0.8122037983055463</v>
       </c>
       <c r="D14">
-        <v>0.02104581171525055</v>
+        <v>0.0262609058658505</v>
       </c>
       <c r="E14">
-        <v>0.03801355041631016</v>
+        <v>0.03720129712409381</v>
       </c>
       <c r="F14">
-        <v>1.331591042236482</v>
+        <v>1.117634337277181</v>
       </c>
       <c r="G14">
-        <v>1.164807897307725</v>
+        <v>1.04461057690601</v>
       </c>
       <c r="H14">
-        <v>0.1627810851509963</v>
+        <v>0.1627256538311599</v>
       </c>
       <c r="I14">
-        <v>0.001553869088579241</v>
+        <v>0.001770846638542878</v>
       </c>
       <c r="J14">
-        <v>0.7278378562316163</v>
+        <v>0.5317883284916576</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08301851468647925</v>
+        <v>0.1990153772013734</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1817623435089395</v>
       </c>
       <c r="N14">
-        <v>0.1798529849770247</v>
+        <v>0.08573403045599548</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8423107513227492</v>
+        <v>0.2004864786369396</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9071544039600283</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.400730957340272</v>
+        <v>4.049935025010427</v>
       </c>
       <c r="C15">
-        <v>0.7526767373481675</v>
+        <v>0.8065347291170326</v>
       </c>
       <c r="D15">
-        <v>0.02056736659637437</v>
+        <v>0.02542087026654372</v>
       </c>
       <c r="E15">
-        <v>0.03825477679088074</v>
+        <v>0.03754631799172703</v>
       </c>
       <c r="F15">
-        <v>1.298253375158211</v>
+        <v>1.095186617906535</v>
       </c>
       <c r="G15">
-        <v>1.133327303471333</v>
+        <v>1.01026568804491</v>
       </c>
       <c r="H15">
-        <v>0.1753618965221477</v>
+        <v>0.1752848764693908</v>
       </c>
       <c r="I15">
-        <v>0.001736251895013474</v>
+        <v>0.001943688057633786</v>
       </c>
       <c r="J15">
-        <v>0.7128920698485643</v>
+        <v>0.5348481515002277</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08488719760190833</v>
+        <v>0.196789333675607</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1775129145367949</v>
       </c>
       <c r="N15">
-        <v>0.1693904505333492</v>
+        <v>0.08795937666925013</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8516608225606532</v>
+        <v>0.1892436225788003</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9150761741361748</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.1318661275522</v>
+        <v>3.834120990269014</v>
       </c>
       <c r="C16">
-        <v>0.7064011081483557</v>
+        <v>0.7649769006554834</v>
       </c>
       <c r="D16">
-        <v>0.01991296465999426</v>
+        <v>0.02388314524768731</v>
       </c>
       <c r="E16">
-        <v>0.03698191257541605</v>
+        <v>0.03661552075640628</v>
       </c>
       <c r="F16">
-        <v>1.259059403780086</v>
+        <v>1.086048101337056</v>
       </c>
       <c r="G16">
-        <v>1.092007677053687</v>
+        <v>0.9406915697707205</v>
       </c>
       <c r="H16">
-        <v>0.1630807854609628</v>
+        <v>0.1628641454112199</v>
       </c>
       <c r="I16">
-        <v>0.00228662826674686</v>
+        <v>0.002308697573956131</v>
       </c>
       <c r="J16">
-        <v>0.6974550755723357</v>
+        <v>0.5896568070271258</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.08138448545383525</v>
+        <v>0.2027520647056491</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.175357802665701</v>
       </c>
       <c r="N16">
-        <v>0.1621319303207542</v>
+        <v>0.08424232433923251</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8675630805993109</v>
+        <v>0.1818572382117196</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9132227416979219</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.040783291915091</v>
+        <v>3.757592616076636</v>
       </c>
       <c r="C17">
-        <v>0.6745313030163231</v>
+        <v>0.7363345714255729</v>
       </c>
       <c r="D17">
-        <v>0.02035320437533095</v>
+        <v>0.02424543921354783</v>
       </c>
       <c r="E17">
-        <v>0.03540074267706439</v>
+        <v>0.03505652828024308</v>
       </c>
       <c r="F17">
-        <v>1.289442934453575</v>
+        <v>1.121868363045778</v>
       </c>
       <c r="G17">
-        <v>1.116118529425009</v>
+        <v>0.9461935904598135</v>
       </c>
       <c r="H17">
-        <v>0.1256229948852052</v>
+        <v>0.1253115834769289</v>
       </c>
       <c r="I17">
-        <v>0.002693258435403578</v>
+        <v>0.002594103353168009</v>
       </c>
       <c r="J17">
-        <v>0.7129868542046864</v>
+        <v>0.6322113921744403</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07447199730681575</v>
+        <v>0.2132171927781066</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1814129385740912</v>
       </c>
       <c r="N17">
-        <v>0.1780296624623432</v>
+        <v>0.07637235747341364</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8652985183920663</v>
+        <v>0.1992913248088115</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.898631528489453</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.096401138430508</v>
+        <v>3.802430773320793</v>
       </c>
       <c r="C18">
-        <v>0.65000033316079</v>
+        <v>0.716147362849739</v>
       </c>
       <c r="D18">
-        <v>0.02184655408826686</v>
+        <v>0.02614403775362817</v>
       </c>
       <c r="E18">
-        <v>0.03470829934827446</v>
+        <v>0.03410753742413863</v>
       </c>
       <c r="F18">
-        <v>1.388017063810466</v>
+        <v>1.209034811501709</v>
       </c>
       <c r="G18">
-        <v>1.204016891747898</v>
+        <v>1.01197729808564</v>
       </c>
       <c r="H18">
-        <v>0.07286268975065724</v>
+        <v>0.07253280511229576</v>
       </c>
       <c r="I18">
-        <v>0.00255154765404253</v>
+        <v>0.002377083627038701</v>
       </c>
       <c r="J18">
-        <v>0.7592074402746931</v>
+        <v>0.6833960109965886</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.06712552739099209</v>
+        <v>0.2307600145121107</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1968428893050245</v>
       </c>
       <c r="N18">
-        <v>0.2186253604169082</v>
+        <v>0.06718660594969528</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8509726347760562</v>
+        <v>0.243361048359219</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.872285467214347</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.254527670277696</v>
+        <v>3.93329403848378</v>
       </c>
       <c r="C19">
-        <v>0.6364452878439693</v>
+        <v>0.7083696435627473</v>
       </c>
       <c r="D19">
-        <v>0.02438323825369082</v>
+        <v>0.02944635356094238</v>
       </c>
       <c r="E19">
-        <v>0.03673518593549607</v>
+        <v>0.03566037885838647</v>
       </c>
       <c r="F19">
-        <v>1.531871059807287</v>
+        <v>1.330243533589723</v>
       </c>
       <c r="G19">
-        <v>1.333573649081586</v>
+        <v>1.115013249570524</v>
       </c>
       <c r="H19">
-        <v>0.02737153612805088</v>
+        <v>0.02710118656746374</v>
       </c>
       <c r="I19">
-        <v>0.002505200051521328</v>
+        <v>0.002417686766501781</v>
       </c>
       <c r="J19">
-        <v>0.8249061658767687</v>
+        <v>0.7412238009390819</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.06491449459373033</v>
+        <v>0.2524294592322818</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2183619647640782</v>
       </c>
       <c r="N19">
-        <v>0.2822389632257511</v>
+        <v>0.06233959842538805</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8359131797953587</v>
+        <v>0.3120935289819045</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8447852220385954</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.719542671871352</v>
+        <v>4.323720816109528</v>
       </c>
       <c r="C20">
-        <v>0.6482600045072502</v>
+        <v>0.7302892787990345</v>
       </c>
       <c r="D20">
-        <v>0.02955062265738562</v>
+        <v>0.03647300699003964</v>
       </c>
       <c r="E20">
-        <v>0.04597563612339606</v>
+        <v>0.04394428539541462</v>
       </c>
       <c r="F20">
-        <v>1.810828712969368</v>
+        <v>1.552965737134798</v>
       </c>
       <c r="G20">
-        <v>1.589185427486996</v>
+        <v>1.331296347877668</v>
       </c>
       <c r="H20">
-        <v>0.0003768270034663068</v>
+        <v>0.0003040814267687431</v>
       </c>
       <c r="I20">
-        <v>0.00191120987417559</v>
+        <v>0.00209452196303328</v>
       </c>
       <c r="J20">
-        <v>0.9497570991976545</v>
+        <v>0.8190645070884841</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07602844325636582</v>
+        <v>0.2857674136323425</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.259767918651292</v>
       </c>
       <c r="N20">
-        <v>0.4069831730244147</v>
+        <v>0.06847289461137773</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8134285110529671</v>
+        <v>0.4463600607495692</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8054035880964001</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.331260570542611</v>
+        <v>4.805332402476836</v>
       </c>
       <c r="C21">
-        <v>0.7276074284119147</v>
+        <v>0.8029583083938121</v>
       </c>
       <c r="D21">
-        <v>0.03249603560929515</v>
+        <v>0.04293263506663436</v>
       </c>
       <c r="E21">
-        <v>0.05024850330737074</v>
+        <v>0.0481367285336507</v>
       </c>
       <c r="F21">
-        <v>1.978203868093829</v>
+        <v>1.631862423364666</v>
       </c>
       <c r="G21">
-        <v>1.751207776691245</v>
+        <v>1.554193539652999</v>
       </c>
       <c r="H21">
-        <v>4.970064449816292E-05</v>
+        <v>3.740257671625002E-05</v>
       </c>
       <c r="I21">
-        <v>0.001703910316357415</v>
+        <v>0.002063582633975436</v>
       </c>
       <c r="J21">
-        <v>1.020983748458747</v>
+        <v>0.701797793124058</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08265063876354262</v>
+        <v>0.2807087759778426</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2775545091249114</v>
       </c>
       <c r="N21">
-        <v>0.4644924261507271</v>
+        <v>0.0731633391958102</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7712568180881707</v>
+        <v>0.5064942952021312</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7774973401119638</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.726154746152304</v>
+        <v>5.110398145500369</v>
       </c>
       <c r="C22">
-        <v>0.7785867670678499</v>
+        <v>0.8475378232573689</v>
       </c>
       <c r="D22">
-        <v>0.03411063916400892</v>
+        <v>0.0470847876070124</v>
       </c>
       <c r="E22">
-        <v>0.05255647330681512</v>
+        <v>0.05049921064819962</v>
       </c>
       <c r="F22">
-        <v>2.08241930058918</v>
+        <v>1.675194898010318</v>
       </c>
       <c r="G22">
-        <v>1.853311636549364</v>
+        <v>1.707880475421916</v>
       </c>
       <c r="H22">
-        <v>0.0004554275515138428</v>
+        <v>0.0003326648078478822</v>
       </c>
       <c r="I22">
-        <v>0.001858497059131992</v>
+        <v>0.002066702325510761</v>
       </c>
       <c r="J22">
-        <v>1.06570982857275</v>
+        <v>0.622277470455586</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08631221451086901</v>
+        <v>0.2762904757889828</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2884057039464878</v>
       </c>
       <c r="N22">
-        <v>0.4957678469766051</v>
+        <v>0.07575004634191096</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7444302343302187</v>
+        <v>0.5388379510706613</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7617151249661234</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.523096200006933</v>
+        <v>4.962135311577015</v>
       </c>
       <c r="C23">
-        <v>0.7494436502955466</v>
+        <v>0.8242091715477784</v>
       </c>
       <c r="D23">
-        <v>0.03314271513634992</v>
+        <v>0.04439642303429991</v>
       </c>
       <c r="E23">
-        <v>0.05136557608386205</v>
+        <v>0.0492042461029385</v>
       </c>
       <c r="F23">
-        <v>2.031509505598606</v>
+        <v>1.662035607269345</v>
       </c>
       <c r="G23">
-        <v>1.803779945506989</v>
+        <v>1.618417493726554</v>
       </c>
       <c r="H23">
-        <v>0.0001915221402764011</v>
+        <v>0.0001435329516830119</v>
       </c>
       <c r="I23">
-        <v>0.001421180029455016</v>
+        <v>0.001667752432610747</v>
       </c>
       <c r="J23">
-        <v>1.044321284066996</v>
+        <v>0.6830327161539742</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08450074473634217</v>
+        <v>0.2805979865284982</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2848749196957669</v>
       </c>
       <c r="N23">
-        <v>0.4783776516287617</v>
+        <v>0.07451398095488493</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7587505258124665</v>
+        <v>0.5211918203261945</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7684141797418711</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.743759272048749</v>
+        <v>4.34471678730074</v>
       </c>
       <c r="C24">
-        <v>0.643203278603238</v>
+        <v>0.7256606973893156</v>
       </c>
       <c r="D24">
-        <v>0.02970097531539295</v>
+        <v>0.03667895462070447</v>
       </c>
       <c r="E24">
-        <v>0.04683242540320443</v>
+        <v>0.04473080041989341</v>
       </c>
       <c r="F24">
-        <v>1.834039593570552</v>
+        <v>1.573077771299808</v>
       </c>
       <c r="G24">
-        <v>1.611118191999026</v>
+        <v>1.348794518541325</v>
       </c>
       <c r="H24">
-        <v>0.0002319425999663949</v>
+        <v>0.0001643652619192082</v>
       </c>
       <c r="I24">
-        <v>0.001399728065441863</v>
+        <v>0.001487680733852415</v>
       </c>
       <c r="J24">
-        <v>0.960870201701141</v>
+        <v>0.8298086827666111</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0774475446674785</v>
+        <v>0.2900386541214246</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2639596420203461</v>
       </c>
       <c r="N24">
-        <v>0.4140365719435835</v>
+        <v>0.06948069144821289</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8142988362244941</v>
+        <v>0.4540224542906657</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8032493079160155</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.907263025451186</v>
+        <v>3.59734348567082</v>
       </c>
       <c r="C25">
-        <v>0.5303572746801422</v>
+        <v>0.5942594970046855</v>
       </c>
       <c r="D25">
-        <v>0.02608046379041795</v>
+        <v>0.0319521359683641</v>
       </c>
       <c r="E25">
-        <v>0.04200851538619155</v>
+        <v>0.04063214549476513</v>
       </c>
       <c r="F25">
-        <v>1.627190072423332</v>
+        <v>1.416280137153691</v>
       </c>
       <c r="G25">
-        <v>1.409409462538093</v>
+        <v>1.186537886128875</v>
       </c>
       <c r="H25">
-        <v>0.002277365586504265</v>
+        <v>0.001754870722453949</v>
       </c>
       <c r="I25">
-        <v>0.003630232853826243</v>
+        <v>0.002947041666899963</v>
       </c>
       <c r="J25">
-        <v>0.8741527075927991</v>
+        <v>0.7779795562014442</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.06988174447132778</v>
+        <v>0.2886833615777817</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2319720867235411</v>
       </c>
       <c r="N25">
-        <v>0.3453266088025089</v>
+        <v>0.06357586951541716</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8769550197524572</v>
+        <v>0.3789330526286818</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8521183727822077</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
